--- a/biology/Zoologie/Clovesuurdameredeor/Clovesuurdameredeor.xlsx
+++ b/biology/Zoologie/Clovesuurdameredeor/Clovesuurdameredeor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clovesuurdameredeor stephani
 Clovesuurdameredeor est un genre éteint de Crocodyliformes téléosauridés, qui a vécu à partir du Jurassique moyen (Bathonien) en Angleterre.
@@ -513,9 +525,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce type de Clovesuurdameredeor, C. stephani, a été nommée par John Whitaker Hulke (1877) comme une nouvelle espèce de Steneosaurus, S. stephani, sur la base d'un crâne partiel de la formation Cornbrash du Dorsetshire, en Angleterre[1]. Vignaud (1995) considérait S. stephani comme un synonyme mineur d'Yvridiosuchus boutilieri[2], mais Johnson et al. (2019) ont noté des différences par rapport à ce dernier et ont retenu stephani comme taxon distinct. Dans sa thèse, Johnson (2019) et Johnson et. al. (2020) a découvert que S. stephani était un machimosaure basal, érigeant le genre Clovesuurdameredeor pour cela[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type de Clovesuurdameredeor, C. stephani, a été nommée par John Whitaker Hulke (1877) comme une nouvelle espèce de Steneosaurus, S. stephani, sur la base d'un crâne partiel de la formation Cornbrash du Dorsetshire, en Angleterre. Vignaud (1995) considérait S. stephani comme un synonyme mineur d'Yvridiosuchus boutilieri, mais Johnson et al. (2019) ont noté des différences par rapport à ce dernier et ont retenu stephani comme taxon distinct. Dans sa thèse, Johnson (2019) et Johnson et. al. (2020) a découvert que S. stephani était un machimosaure basal, érigeant le genre Clovesuurdameredeor pour cela,.
 </t>
         </is>
       </c>
